--- a/Abfragen Hana.xlsx
+++ b/Abfragen Hana.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagramm Abfrage 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Diagramm Abfrage 3.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Diagramm Abfrage 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Diagramm Abfrage 6" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>Abfrage</t>
   </si>
@@ -326,6 +330,69 @@
     <t xml:space="preserve">successfully executed in 5.970 seconds  (server processing time: 5.969 seconds)
 Fetched 201 row(s) in 980 ms 366 µs (server processing time: 979 ms 799 µs)
 </t>
+  </si>
+  <si>
+    <t>1. Versuch Zeiten</t>
+  </si>
+  <si>
+    <t>2. Versuch Zeiten</t>
+  </si>
+  <si>
+    <t>3. Versuch Zeiten</t>
+  </si>
+  <si>
+    <t>4. Versuch Zeiten</t>
+  </si>
+  <si>
+    <t>5. Versuch Zeiten</t>
+  </si>
+  <si>
+    <t>6. Versuch Zeiten</t>
+  </si>
+  <si>
+    <t>7. Versuch Zeiten</t>
+  </si>
+  <si>
+    <t>8. Versuch Zeiten</t>
+  </si>
+  <si>
+    <t>9. Versuch Zeiten</t>
+  </si>
+  <si>
+    <t>10. Versuch Zeiten</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -374,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -397,11 +464,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -419,6 +506,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -434,6 +524,4025 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Abfrage 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37876377952755913"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Y$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7920</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5389</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-307413696"/>
+        <c:axId val="-307422944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-307413696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Abfragen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41099890638670161"/>
+              <c:y val="0.88331000291630213"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-307422944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-307422944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>in Millisekunden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-307413696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Abfrage 3.1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Y$5:$AH$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7074</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6259</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5970</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-260240464"/>
+        <c:axId val="-260239376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-260240464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Abfragen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-260239376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-260239376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>In Millisekunden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-260240464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Abfrage 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Y$6:$AH$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>533.14099999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>502.77199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>494.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>483.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>521.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>973.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>518.32100000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>515.89700000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>496.35599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>513.38199999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-260241552"/>
+        <c:axId val="-260241008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-260241552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Abfragen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-260241008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-260241008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>In Millisekunden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-260241552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Abfrage 6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Y$8:$AH$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2959</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3231</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2877</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-260231760"/>
+        <c:axId val="-260227952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-260231760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Abfragen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-260227952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-260227952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>In Millisekunden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-260231760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -723,10 +4832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:AT9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="R7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,9 +4845,19 @@
     <col min="3" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="157.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="22" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5703125" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,8 +4897,68 @@
       <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="N1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -805,8 +4984,61 @@
       <c r="M2" s="10" t="s">
         <v>40</v>
       </c>
+      <c r="N2" s="12" t="str">
+        <f>MID(C2,SEARCH("executed in ",C2)+12,SEARCH(" seconds ",C2)-SEARCH("executed in ",C2)-12)</f>
+        <v>13.508</v>
+      </c>
+      <c r="O2" s="12" t="str">
+        <f t="shared" ref="O2:P6" si="0">MID(D2,SEARCH("executed in ",D2)+12,SEARCH(" seconds ",D2)-SEARCH("executed in ",D2)-12)</f>
+        <v>17.114</v>
+      </c>
+      <c r="P2" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>15.772</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="12">
+        <f>$X$2*N2</f>
+        <v>13508</v>
+      </c>
+      <c r="Z2" s="12">
+        <f t="shared" ref="Z2:AA5" si="1">$X$2*O2</f>
+        <v>17114</v>
+      </c>
+      <c r="AA2" s="12">
+        <f t="shared" si="1"/>
+        <v>15772</v>
+      </c>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
     </row>
-    <row r="3" spans="1:13" ht="345" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="345" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -829,9 +5061,61 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="7"/>
+      <c r="M3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="12" t="str">
+        <f>MID(C3,SEARCH("executed in ",C3)+12,SEARCH(" seconds ",C3)-SEARCH("executed in ",C3)-12)</f>
+        <v>14.612</v>
+      </c>
+      <c r="O3" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>19.175</v>
+      </c>
+      <c r="P3" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>13.523</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="Y3" s="12">
+        <f>$X$2*N3</f>
+        <v>14612</v>
+      </c>
+      <c r="Z3" s="12">
+        <f t="shared" si="1"/>
+        <v>19175</v>
+      </c>
+      <c r="AA3" s="12">
+        <f t="shared" si="1"/>
+        <v>13523</v>
+      </c>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -869,8 +5153,100 @@
         <v>32</v>
       </c>
       <c r="M4" s="7"/>
+      <c r="N4" s="12" t="str">
+        <f>MID(C4,SEARCH("executed in ",C4)+12,SEARCH(" seconds ",C4)-SEARCH("executed in ",C4)-12)</f>
+        <v>9.600</v>
+      </c>
+      <c r="O4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>5.669</v>
+      </c>
+      <c r="P4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>6.832</v>
+      </c>
+      <c r="Q4" s="12" t="str">
+        <f t="shared" ref="Q4:W6" si="2">MID(F4,SEARCH("executed in ",F4)+12,SEARCH(" seconds ",F4)-SEARCH("executed in ",F4)-12)</f>
+        <v>7.920</v>
+      </c>
+      <c r="R4" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>5.979</v>
+      </c>
+      <c r="S4" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>7.935</v>
+      </c>
+      <c r="T4" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>5.416</v>
+      </c>
+      <c r="U4" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>5.437</v>
+      </c>
+      <c r="V4" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>5.389</v>
+      </c>
+      <c r="W4" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>5.569</v>
+      </c>
+      <c r="Y4" s="12">
+        <f>$X$2*N4</f>
+        <v>9600</v>
+      </c>
+      <c r="Z4" s="12">
+        <f t="shared" si="1"/>
+        <v>5669</v>
+      </c>
+      <c r="AA4" s="12">
+        <f t="shared" si="1"/>
+        <v>6832</v>
+      </c>
+      <c r="AB4" s="12">
+        <f t="shared" ref="AB3:AK5" si="3">$X$2*Q4</f>
+        <v>7920</v>
+      </c>
+      <c r="AC4" s="12">
+        <f t="shared" si="3"/>
+        <v>5979</v>
+      </c>
+      <c r="AD4" s="12">
+        <f t="shared" si="3"/>
+        <v>7935</v>
+      </c>
+      <c r="AE4" s="12">
+        <f t="shared" si="3"/>
+        <v>5416</v>
+      </c>
+      <c r="AF4" s="12">
+        <f t="shared" si="3"/>
+        <v>5437</v>
+      </c>
+      <c r="AG4" s="12">
+        <f t="shared" si="3"/>
+        <v>5389</v>
+      </c>
+      <c r="AH4" s="12">
+        <f t="shared" si="3"/>
+        <v>5569</v>
+      </c>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>60</v>
       </c>
@@ -908,8 +5284,100 @@
         <v>71</v>
       </c>
       <c r="M5" s="7"/>
+      <c r="N5" s="12" t="str">
+        <f>MID(C5,SEARCH("executed in ",C5)+12,SEARCH(" seconds ",C5)-SEARCH("executed in ",C5)-12)</f>
+        <v>6.115</v>
+      </c>
+      <c r="O5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>9.243</v>
+      </c>
+      <c r="P5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>6.172</v>
+      </c>
+      <c r="Q5" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>6.131</v>
+      </c>
+      <c r="R5" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>7.074</v>
+      </c>
+      <c r="S5" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>6.708</v>
+      </c>
+      <c r="T5" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>6.741</v>
+      </c>
+      <c r="U5" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>8.011</v>
+      </c>
+      <c r="V5" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>6.259</v>
+      </c>
+      <c r="W5" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>5.970</v>
+      </c>
+      <c r="Y5" s="12">
+        <f t="shared" ref="Y5:Y8" si="4">$X$2*N5</f>
+        <v>6115</v>
+      </c>
+      <c r="Z5" s="12">
+        <f t="shared" si="1"/>
+        <v>9243</v>
+      </c>
+      <c r="AA5" s="12">
+        <f t="shared" si="1"/>
+        <v>6172</v>
+      </c>
+      <c r="AB5" s="12">
+        <f t="shared" si="3"/>
+        <v>6131</v>
+      </c>
+      <c r="AC5" s="12">
+        <f t="shared" si="3"/>
+        <v>7074</v>
+      </c>
+      <c r="AD5" s="12">
+        <f t="shared" si="3"/>
+        <v>6708</v>
+      </c>
+      <c r="AE5" s="12">
+        <f t="shared" si="3"/>
+        <v>6741</v>
+      </c>
+      <c r="AF5" s="12">
+        <f t="shared" si="3"/>
+        <v>8011</v>
+      </c>
+      <c r="AG5" s="12">
+        <f t="shared" si="3"/>
+        <v>6259</v>
+      </c>
+      <c r="AH5" s="12">
+        <f t="shared" si="3"/>
+        <v>5970</v>
+      </c>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -949,8 +5417,90 @@
       <c r="M6" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="N6" s="12" t="str">
+        <f>MID(C6,SEARCH("executed in ",C6)+12,SEARCH(" (server processing time: ",C6)-SEARCH("executed in ",C6)-12)</f>
+        <v xml:space="preserve">533 ms 141 µs </v>
+      </c>
+      <c r="O6" s="12" t="str">
+        <f t="shared" ref="O6:W6" si="5">MID(D6,SEARCH("executed in ",D6)+12,SEARCH(" (server processing time: ",D6)-SEARCH("executed in ",D6)-12)</f>
+        <v xml:space="preserve">502 ms 772 µs </v>
+      </c>
+      <c r="P6" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">494 ms 14 µs </v>
+      </c>
+      <c r="Q6" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">483 ms 720 µs </v>
+      </c>
+      <c r="R6" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">521 ms 6 µs </v>
+      </c>
+      <c r="S6" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">973 ms 510 µs </v>
+      </c>
+      <c r="T6" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">518 ms 321 µs </v>
+      </c>
+      <c r="U6" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">515 ms 897 µs </v>
+      </c>
+      <c r="V6" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">496 ms 356 µs </v>
+      </c>
+      <c r="W6" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">513 ms 382 µs </v>
+      </c>
+      <c r="Y6" s="12">
+        <v>533.14099999999996</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>502.77199999999999</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>494.14</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>483.72</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>521.6</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>973.51</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>518.32100000000003</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>515.89700000000005</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>496.35599999999999</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>513.38199999999995</v>
+      </c>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -970,8 +5520,40 @@
       <c r="M7" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1009,8 +5591,100 @@
         <v>57</v>
       </c>
       <c r="M8" s="7"/>
+      <c r="N8" s="12" t="str">
+        <f t="shared" ref="N7:N9" si="6">MID(C8,SEARCH("executed in ",C8)+12,SEARCH(" seconds ",C8)-SEARCH("executed in ",C8)-12)</f>
+        <v>4.041</v>
+      </c>
+      <c r="O8" s="12" t="str">
+        <f t="shared" ref="O8" si="7">MID(D8,SEARCH("executed in ",D8)+12,SEARCH(" seconds ",D8)-SEARCH("executed in ",D8)-12)</f>
+        <v>2.918</v>
+      </c>
+      <c r="P8" s="12" t="str">
+        <f t="shared" ref="P8" si="8">MID(E8,SEARCH("executed in ",E8)+12,SEARCH(" seconds ",E8)-SEARCH("executed in ",E8)-12)</f>
+        <v>2.974</v>
+      </c>
+      <c r="Q8" s="12" t="str">
+        <f t="shared" ref="Q8" si="9">MID(F8,SEARCH("executed in ",F8)+12,SEARCH(" seconds ",F8)-SEARCH("executed in ",F8)-12)</f>
+        <v>2.959</v>
+      </c>
+      <c r="R8" s="12" t="str">
+        <f t="shared" ref="R8" si="10">MID(G8,SEARCH("executed in ",G8)+12,SEARCH(" seconds ",G8)-SEARCH("executed in ",G8)-12)</f>
+        <v>2.966</v>
+      </c>
+      <c r="S8" s="12" t="str">
+        <f t="shared" ref="S8" si="11">MID(H8,SEARCH("executed in ",H8)+12,SEARCH(" seconds ",H8)-SEARCH("executed in ",H8)-12)</f>
+        <v>2.876</v>
+      </c>
+      <c r="T8" s="12" t="str">
+        <f t="shared" ref="T8" si="12">MID(I8,SEARCH("executed in ",I8)+12,SEARCH(" seconds ",I8)-SEARCH("executed in ",I8)-12)</f>
+        <v>3.231</v>
+      </c>
+      <c r="U8" s="12" t="str">
+        <f t="shared" ref="U8" si="13">MID(J8,SEARCH("executed in ",J8)+12,SEARCH(" seconds ",J8)-SEARCH("executed in ",J8)-12)</f>
+        <v>2.998</v>
+      </c>
+      <c r="V8" s="12" t="str">
+        <f t="shared" ref="V8" si="14">MID(K8,SEARCH("executed in ",K8)+12,SEARCH(" seconds ",K8)-SEARCH("executed in ",K8)-12)</f>
+        <v>2.877</v>
+      </c>
+      <c r="W8" s="12" t="str">
+        <f t="shared" ref="W8" si="15">MID(L8,SEARCH("executed in ",L8)+12,SEARCH(" seconds ",L8)-SEARCH("executed in ",L8)-12)</f>
+        <v>2.836</v>
+      </c>
+      <c r="Y8" s="12">
+        <f t="shared" si="4"/>
+        <v>4041</v>
+      </c>
+      <c r="Z8" s="12">
+        <f t="shared" ref="Z8" si="16">$X$2*O8</f>
+        <v>2918</v>
+      </c>
+      <c r="AA8" s="12">
+        <f t="shared" ref="AA8" si="17">$X$2*P8</f>
+        <v>2974</v>
+      </c>
+      <c r="AB8" s="12">
+        <f t="shared" ref="AB8" si="18">$X$2*Q8</f>
+        <v>2959</v>
+      </c>
+      <c r="AC8" s="12">
+        <f t="shared" ref="AC8" si="19">$X$2*R8</f>
+        <v>2966</v>
+      </c>
+      <c r="AD8" s="12">
+        <f t="shared" ref="AD8" si="20">$X$2*S8</f>
+        <v>2876</v>
+      </c>
+      <c r="AE8" s="12">
+        <f t="shared" ref="AE8" si="21">$X$2*T8</f>
+        <v>3231</v>
+      </c>
+      <c r="AF8" s="12">
+        <f t="shared" ref="AF8" si="22">$X$2*U8</f>
+        <v>2998</v>
+      </c>
+      <c r="AG8" s="12">
+        <f t="shared" ref="AG8" si="23">$X$2*V8</f>
+        <v>2877</v>
+      </c>
+      <c r="AH8" s="12">
+        <f t="shared" ref="AH8" si="24">$X$2*W8</f>
+        <v>2836</v>
+      </c>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="225" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1030,6 +5704,41 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="7"/>
+      <c r="N9" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>6.285</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
     </row>
   </sheetData>
   <sortState ref="A2:M6">
@@ -1038,4 +5747,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>